--- a/ApartmentManagement/src/main/resources/com/utc2/apartmentmanagement/PDF_File/TyLeTrangThaiThanhToan.xlsx
+++ b/ApartmentManagement/src/main/resources/com/utc2/apartmentmanagement/PDF_File/TyLeTrangThaiThanhToan.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>BIỂU ĐỒ TỶ LỆ TRẠNG THÁI THANH TOÁN</t>
+  </si>
   <si>
     <t>Status</t>
   </si>
@@ -34,13 +37,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,8 +71,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -103,7 +114,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Biểu đồ trạng thái thanh toaán'!$A$2:$A$4</c:f>
+              <c:f>'Biểu đồ trạng thái thanh toaán'!$A$13:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -120,7 +131,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Biểu đồ trạng thái thanh toaán'!$B$2:$B$4</c:f>
+              <c:f>'Biểu đồ trạng thái thanh toaán'!$B$13:$B$15</c:f>
               <c:numCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -158,13 +169,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -174,7 +185,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="3733800" cy="3619500"/>
+        <a:ext cx="3733800" cy="3238500"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -189,45 +200,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="0"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="B12" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B2" t="n" s="0">
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n" s="0">
         <v>50.0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n" s="0">
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n" s="0">
         <v>8.0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n" s="0">
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n" s="0">
         <v>42.0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J2"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/ApartmentManagement/src/main/resources/com/utc2/apartmentmanagement/PDF_File/TyLeTrangThaiThanhToan.xlsx
+++ b/ApartmentManagement/src/main/resources/com/utc2/apartmentmanagement/PDF_File/TyLeTrangThaiThanhToan.xlsx
@@ -37,7 +37,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -46,9 +46,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
       <sz val="16.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -59,7 +63,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -67,15 +71,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -93,7 +116,10 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
               <a:t>Tỷ lệ trạng thái thanh toán</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100"/>
@@ -150,7 +176,7 @@
       </c:pieChart>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="false"/>
     </c:legend>
     <c:plotVisOnly val="true"/>
@@ -236,34 +262,34 @@
       <c r="J2" s="0"/>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B13" t="n" s="0">
+      <c r="B13" t="n" s="2">
         <v>50.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B14" t="n" s="0">
+      <c r="B14" t="n" s="2">
         <v>8.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B15" t="n" s="0">
+      <c r="B15" t="n" s="2">
         <v>42.0</v>
       </c>
     </row>
